--- a/medicine/Enfance/Janik_Coat/Janik_Coat.xlsx
+++ b/medicine/Enfance/Janik_Coat/Janik_Coat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janik Coat, née le 19 mars 1972 à Rennes, est une artiste, illustratrice et auteure  de littérature jeunesse française.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses parents se rencontrent à Rennes alors qu'ils sont étudiants[1]. Sa mère était assistante sociale et son père était comptable à Brest[1]. Elle a un frère et une sœur[1]. Janik Coat « signifie en breton « petite Jeanne des bois »[1] ».
-Janik Coat suit une spécialisation artistique au lycée, et prend des cours auprès d'un artiste contemporain, Marc Didou, « qui l'initie à la sculpture et lui offre une vision plus globale de ce qu'est un artiste[1] ». Elle étudie ensuite le graphisme aux beaux-arts de Nantes[2]. 
-Elle devient graphiste à Nantes en 1999[1], et son premier ouvrage est publié en 2005[1] aux éditions MeMo. Elle est ensuite également publiée chez divers éditeurs, dont les éditions Autrement, les éditions Sarbacane, ou Albin Michel. Ses albums sont traduits dans plusieurs pays[3],[1].  
-Elle est auteure - illustratrice, et illustre également des ouvrages écrits par d'autres auteurs jeunesse, tels  Alex Cousseau[4], Elise Fontenaille[5], ou Anne Cortey pour la série Amos[6],[7], les aventures d'un petit koala. 
-« Elle mélange dessin et numérique, elle joue principalement sur les formes et les couleurs[3] ». Elle déclare en 2014 : « C'est mon dessin qui m'a amené à faire des livres pour enfants[1]. » Elle apprécie travailler autour des illustrations d'animaux[8], et aime particulièrement les « éléphants et les hippopotames »[9]. Sa série Romi raconte les histoires d'un petit rhinocéros[10],[11]. Elle indique : « Je crée des formes, des figures, et je leur donne un nom ensuite, de façon intuitive ou anecdotique[1]. » 
-En 2011, elle est lauréate de la Pomme d'Or de Bratislava[12], récompense internationale de la Biennale d'illustration de Bratislava pour ses albums Mon hippopotame et La Surprise.
-Sept de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[13] en 2024.
-Elle est membre de la Charte des auteurs et illustrateurs jeunesse[14].
-Elle vit et travaille à Paris[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses parents se rencontrent à Rennes alors qu'ils sont étudiants. Sa mère était assistante sociale et son père était comptable à Brest. Elle a un frère et une sœur. Janik Coat « signifie en breton « petite Jeanne des bois » ».
+Janik Coat suit une spécialisation artistique au lycée, et prend des cours auprès d'un artiste contemporain, Marc Didou, « qui l'initie à la sculpture et lui offre une vision plus globale de ce qu'est un artiste ». Elle étudie ensuite le graphisme aux beaux-arts de Nantes. 
+Elle devient graphiste à Nantes en 1999, et son premier ouvrage est publié en 2005 aux éditions MeMo. Elle est ensuite également publiée chez divers éditeurs, dont les éditions Autrement, les éditions Sarbacane, ou Albin Michel. Ses albums sont traduits dans plusieurs pays,.  
+Elle est auteure - illustratrice, et illustre également des ouvrages écrits par d'autres auteurs jeunesse, tels  Alex Cousseau, Elise Fontenaille, ou Anne Cortey pour la série Amos les aventures d'un petit koala. 
+« Elle mélange dessin et numérique, elle joue principalement sur les formes et les couleurs ». Elle déclare en 2014 : « C'est mon dessin qui m'a amené à faire des livres pour enfants. » Elle apprécie travailler autour des illustrations d'animaux, et aime particulièrement les « éléphants et les hippopotames ». Sa série Romi raconte les histoires d'un petit rhinocéros,. Elle indique : « Je crée des formes, des figures, et je leur donne un nom ensuite, de façon intuitive ou anecdotique. » 
+En 2011, elle est lauréate de la Pomme d'Or de Bratislava, récompense internationale de la Biennale d'illustration de Bratislava pour ses albums Mon hippopotame et La Surprise.
+Sept de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024.
+Elle est membre de la Charte des auteurs et illustrateurs jeunesse.
+Elle vit et travaille à Paris. 
 </t>
         </is>
       </c>
@@ -550,20 +564,57 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Janik Coat a publié plusieurs dizaines d'ouvrages[15].
-Autrice et illustratrice
-Popov et Samothrace : le bestiaire , MeMo, 2005
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Janik Coat a publié plusieurs dizaines d'ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Janik_Coat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janik_Coat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Popov et Samothrace : le bestiaire , MeMo, 2005
 Je ne suis pas comme les autres, MeMo, 2006
-Clotaire se déguise[3], Autrement jeunesse, 2009 ; réédition, La Partie, 2022
-Mon hippopotame[16],[17], Autrement jeunesse, 2010
-ABC bestiaire[8],[18], Autrement jeunesse, 2012
-Le voyage de Loti [19], MeMo, 2014
-Le cube rouge[20], conception papier de Bernard Duisit, Hélium, 2015
+Clotaire se déguise, Autrement jeunesse, 2009 ; réédition, La Partie, 2022
+Mon hippopotame Autrement jeunesse, 2010
+ABC bestiaire Autrement jeunesse, 2012
+Le voyage de Loti , MeMo, 2014
+Le cube rouge, conception papier de Bernard Duisit, Hélium, 2015
 Le cadeau de Popov, MeMo, 2015
 Série Couleurs, éd. MéMo, 2017
-Violet chat[21]
+Violet chat
 Jaune chameau
 Noir rhinocéros
 Rose poulpe
@@ -574,17 +625,17 @@
  Blanc chouette
 Bleu éléphant 
 Le lutin bleu , Hélium , 2017
-C'est lundi ! : un pop-up pour les petits [22], conception papier de Bernard Duisit, Hélium, 2018
+C'est lundi ! : un pop-up pour les petits , conception papier de Bernard Duisit, Hélium, 2018
 Danse avec Bernie, Hélium, 2020
 Hippopposés, Casterman, 2020
 Baisers polaires , Albin Michel , 2020
 Série Romi , Sarbacane
-Romi à la plage[10], 2014
+Romi à la plage, 2014
 Romi à la maison, 2015
 Romi dans la nature, 2016
-Les Voyages de Romi[11], 2019
+Les Voyages de Romi, 2019
 Série Bernie, Hélium
-Bernie c'est mon ours[23], 2019
+Bernie c'est mon ours, 2019
  Danse avec Bernie, 2020
  Soirée pyjama avec Bernie, 2022
 La maison de Bernie, 2023
@@ -594,57 +645,7 @@
 Sanglier d'automne
 Papillon d'été
 Chouette d'hiver
-Chat de printemps
-Illustratrice
-Voyelles, texte d'Élisabeth Brami, Seuil jeunesse, 2009
-Mon livre de haïkus : à dire, à lire et à inventer, texte de Jean-Hugues Malineau, Albin Michel jeunesse, 2010
-Série Amos, texte de Anne Cortey, Autrement jeunesse
-Amos et le pays noir, 2009
- Amos et les gouttes de pluie[6], 2011
- Aujourd'hui, Amos[7], 2016
- Les petits mots d'Amos, 2018
-Pour un carré de chocolat [5], texte de Élise Fontenaille, avec Clarisse Buono, Grasset jeunesse, 2012
-Olive &amp; Léandre, texte de Alex Cousseau, Les Fourmis rouges, 2018
-Slip[24],[4], texte de Alex Cousseau, Les Fourmis rouges, 2020
-La malédiction des flamants roses[9], texte de Alice de Nussy, Grasset jeunesse, 2021
-Le Cygne de Popper - Philonimo 7, texte de Alice Brière-Haquet, 3œil, 2022
-Iggy[25], texte de Alex Cousseau, Les Fourmis rouges, 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Janik_Coat</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Janik_Coat</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sélection Prix Sorcières 2011[17] pour Mon hippopotame
- Pomme d'Or de Bratislava 2011[12] pour Mon hippopotame et La Surprise.
-Sélection Prix Sorcières 2013[26] pour ABC Bestiaire
-Sélection Prix Sorcières 2014[27] pour Ça dépend
-Prix Ficelle 2022[28] pour Slip, texte de Alex Cousseau
-Sept de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[13] en 2024, dont La Surprise et Je ne suis pas comme les autres.
-</t>
+Chat de printemps</t>
         </is>
       </c>
     </row>
@@ -669,16 +670,104 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Voyelles, texte d'Élisabeth Brami, Seuil jeunesse, 2009
+Mon livre de haïkus : à dire, à lire et à inventer, texte de Jean-Hugues Malineau, Albin Michel jeunesse, 2010
+Série Amos, texte de Anne Cortey, Autrement jeunesse
+Amos et le pays noir, 2009
+ Amos et les gouttes de pluie, 2011
+ Aujourd'hui, Amos, 2016
+ Les petits mots d'Amos, 2018
+Pour un carré de chocolat , texte de Élise Fontenaille, avec Clarisse Buono, Grasset jeunesse, 2012
+Olive &amp; Léandre, texte de Alex Cousseau, Les Fourmis rouges, 2018
+Slip texte de Alex Cousseau, Les Fourmis rouges, 2020
+La malédiction des flamants roses, texte de Alice de Nussy, Grasset jeunesse, 2021
+Le Cygne de Popper - Philonimo 7, texte de Alice Brière-Haquet, 3œil, 2022
+Iggy, texte de Alex Cousseau, Les Fourmis rouges, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Janik_Coat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janik_Coat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sélection Prix Sorcières 2011 pour Mon hippopotame
+ Pomme d'Or de Bratislava 2011 pour Mon hippopotame et La Surprise.
+Sélection Prix Sorcières 2013 pour ABC Bestiaire
+Sélection Prix Sorcières 2014 pour Ça dépend
+Prix Ficelle 2022 pour Slip, texte de Alex Cousseau
+Sept de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024, dont La Surprise et Je ne suis pas comme les autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Janik_Coat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janik_Coat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Quelques expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2013 : Popov et ses contraires, Square des artistes, Paris
 2020 : Les couleurs chez Janik Coat, Médiathèque Albert Camus, Juan-les-Pins
 2021 : Janik Coat, Médiathèque  Etienne Caux, Saint-Nazaire
 décembre 2021 - janvier 2022 : Je ne suis pas comme les autres, Médiathèque de Redon
-mars 2022 : Popov et Samothrace[29], Médiathèque Barbara, Saint-Brevin</t>
+mars 2022 : Popov et Samothrace, Médiathèque Barbara, Saint-Brevin</t>
         </is>
       </c>
     </row>
